--- a/biology/Botanique/Tillandsia_dressleri/Tillandsia_dressleri.xlsx
+++ b/biology/Botanique/Tillandsia_dressleri/Tillandsia_dressleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia dressleri L.B.Sm. est une plante de la famille des Bromeliaceae.
 L'épithète dressleri est une dédicace au botaniste Robert L. Dressler, collecteur de la plante.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia dressleri L.B.Sm., in Phytologia 8(5): 221, tab. 1, fig. 7 (1962)
-Diagnose originale[1] :
+Diagnose originale :
 « T. disticha H.B.K. in systema Mezii proxima sed bulbo elongato, foliorum laminis majoribus reflexis, sepalis subaequaliter liberis differt. A T. balbisiana Schult. cujus habitu valde imitans, staminibus quam petalis brevioribus (Subgen. Allardtia) differt. »
 Type : leg. R.L. Dressler., s.n., 1949-12-31 ; « on trees, 8 miles south of Agua Nueva, State of Sinaloa, Mexico » ; Holotypus MO (MO-2198607)
 </t>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia balbisiana Schult.f[2].</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -576,10 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia balbisiana Schult.f.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +629,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée ; épiphyte[1].
-Habitat : ?
-Altitude : ?</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -634,14 +657,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique centrale :
- Mexique
-Sinaloa[1]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée ; épiphyte.
+Habitat : ?
+Altitude : ?</t>
         </is>
       </c>
     </row>
@@ -666,10 +691,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique centrale :
+ Mexique
+Sinaloa</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_dressleri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_dressleri</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
